--- a/public/INVENTARIO.xlsx
+++ b/public/INVENTARIO.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\AÑO 2025\INVENTARIO DIARIO 2025\OCTUBRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF16FB8F-CB4C-4A45-82E1-DCCB633B5DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CA0B366-CD65-430E-9B18-9FFFD6A4D2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{34964186-5E2B-4DD2-BEE4-B35675858B93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E06AD99B-DEFB-4170-9953-5EAD0CC7CA37}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS" sheetId="1" r:id="rId1"/>
     <sheet name="BUSQUEDA" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">DATOS!$A$1:$D$861</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">DATOS!$A$1:$D$863</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">DATOS!$A:$D,DATOS!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="1501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="1504">
   <si>
     <t>REFERENCIA</t>
   </si>
@@ -2234,6 +2234,9 @@
     <t xml:space="preserve">Pesa de Calibracion de 200 gramos. Marca : Autónics. </t>
   </si>
   <si>
+    <t xml:space="preserve">Bàscula, modelo Bench ASSY, 50lb (25Kg) CW90 12x12 Longitud cable 10ft.  Marca: Rice Lake. </t>
+  </si>
+  <si>
     <t>HD3030</t>
   </si>
   <si>
@@ -3955,6 +3958,12 @@
     <t>SINAMICS G120C, pot. nom.11.0KW con sob. del 150% durante 3seg 3AC380-480V, 47-63Hz sin filtrar E/S 6DI,2DO,1AI,1AO, IP20,PROFINET .Marca: Siemens.</t>
   </si>
   <si>
+    <t>3SK1111-1AW20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Módulo de seguridad SIRIUS serie estandar Rele 3 contactos NA+ circ. señaliz. rele 1 NC US = 110-240VAC/DC bornes de tornillo. Marca: Siemens. </t>
+  </si>
+  <si>
     <t>8UD1900-2WB00</t>
   </si>
   <si>
@@ -4534,13 +4543,13 @@
     <t>SIIMED S.A.S. - INGETES S.A.S</t>
   </si>
   <si>
-    <t>OCT/24/2025</t>
+    <t>OCT/28/2025</t>
+  </si>
+  <si>
+    <t>INVENTARIO REGULAR</t>
   </si>
   <si>
     <t>CANTIDAD</t>
-  </si>
-  <si>
-    <t>INVENTARIO REGULAR</t>
   </si>
   <si>
     <t>INVENTARIO OEMS</t>
@@ -4926,8 +4935,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59A93491-99C8-472D-B5CE-88A6CB2EEA15}" name="Tabla1" displayName="Tabla1" ref="A3:D531" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13">
-  <autoFilter ref="A3:D531" xr:uid="{59A93491-99C8-472D-B5CE-88A6CB2EEA15}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F74F5852-2EEF-428A-B408-5815EEE4FA2D}" name="Tabla1" displayName="Tabla1" ref="A3:D532" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13">
+  <autoFilter ref="A3:D532" xr:uid="{F74F5852-2EEF-428A-B408-5815EEE4FA2D}">
     <filterColumn colId="3">
       <filters>
         <filter val="1,000.00"/>
@@ -4976,18 +4985,18 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CD67B2DE-CD7F-478B-8CC8-D8E32DC9CC5A}" name="REFERENCIA" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{93552EBF-D9D0-4A6F-90A4-68C901CAEAD5}" name="MARCA" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{17E3F946-54C1-4026-A568-BB76FFC1EB69}" name="DESCRIPCION" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{445F0D51-B2B5-4F28-BAD7-F6599CC705C4}" name="CANTIDAD" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{1F6A131D-4B18-42DE-8212-A4860FC5EC09}" name="REFERENCIA" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{B13546CC-1582-44C6-BB76-A64AEFEA423C}" name="MARCA" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{D7894F4D-EEF1-4751-8D04-9219776139E9}" name="DESCRIPCION" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{76A56215-FE23-439C-B03D-AC075497F727}" name="CANTIDAD" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DA8E4B90-1F0B-4BAF-8456-E5CFF754B12F}" name="Tabla2" displayName="Tabla2" ref="A533:D771" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
-  <autoFilter ref="A533:D771" xr:uid="{DA8E4B90-1F0B-4BAF-8456-E5CFF754B12F}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{354E98BA-7BE5-4E11-B172-8897E205C28D}" name="Tabla2" displayName="Tabla2" ref="A534:D773" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+  <autoFilter ref="A534:D773" xr:uid="{354E98BA-7BE5-4E11-B172-8897E205C28D}">
     <filterColumn colId="3">
       <filters>
         <filter val="1.00"/>
@@ -5020,18 +5029,18 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0046A89C-E3BB-4199-ACD0-3D1D42BC0B8A}" name="REFERENCIA" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{E0E2C0FE-0F69-40F5-9AB4-58056EC6408C}" name="MARCA" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{CB3E6572-1B60-46D6-8811-055244A3496F}" name="DESCRIPCION" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{1A6F6D3C-30A0-4CD3-8D39-D92EF48700CE}" name="CANTIDAD" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{AE147F16-E038-49CB-8095-3BCD288C8687}" name="REFERENCIA" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{90537AAF-678A-4C73-81D8-ECCCE5FEADFB}" name="MARCA" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{8A087DFD-B297-4D69-AE4C-E92E2B6D3FB0}" name="DESCRIPCION" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{9850BB63-7B8C-4AE1-A97A-0D233CFDC00A}" name="CANTIDAD" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{10C2AC97-F248-4FDF-B210-A3BF24C1A7F3}" name="Tabla3" displayName="Tabla3" ref="A773:D861" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A773:D861" xr:uid="{10C2AC97-F248-4FDF-B210-A3BF24C1A7F3}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E4A449C6-1D80-45D3-8A54-A6209E7A7A3A}" name="Tabla3" displayName="Tabla3" ref="A775:D863" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A775:D863" xr:uid="{E4A449C6-1D80-45D3-8A54-A6209E7A7A3A}">
     <filterColumn colId="3">
       <filters>
         <filter val="1.00"/>
@@ -5050,10 +5059,10 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{030FB5E7-032C-480C-88E1-CE21611A2501}" name="REFERENCIA" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{DF620093-0826-42D2-A061-BAC867431F71}" name="MARCA" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F415C53C-7DFE-450D-9766-FDE2A29B3C30}" name="DESCRIPCION" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{369E1948-0284-4409-BD8A-3BFE4EAC9D41}" name="CANTIDAD" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{523CE70E-D935-4FE4-A2C6-02787261255E}" name="REFERENCIA" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{76FDFBC5-363E-4001-995B-FC4B2FCE4AEF}" name="MARCA" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{03726951-ECE6-4BD0-8B83-D3FB70244AD4}" name="DESCRIPCION" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{8470DB63-9CC3-4BFA-99BF-1D77FFF84DC5}" name="CANTIDAD" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5375,40 +5384,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F75CB1-EC53-4CA9-BA75-F95F336794C0}">
-  <dimension ref="A1:I861"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8304F119-E52C-48C2-B36C-17577B0D4F17}">
+  <dimension ref="A1:H863"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="A775" sqref="A775:D863"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="107" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="8" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -5419,10 +5428,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5435,8 +5444,12 @@
       <c r="D4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -5450,7 +5463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -5464,7 +5477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -5478,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -5489,14 +5502,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="3">
-        <v>6</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -5510,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -5524,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -5538,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -5552,7 +5561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -5566,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -5580,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -5594,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -9108,7 +9117,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>519</v>
       </c>
@@ -10645,7 +10654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>202101</v>
       </c>
@@ -10656,7 +10665,7 @@
         <v>691</v>
       </c>
       <c r="D377" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -10982,333 +10991,333 @@
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A401" s="1" t="s">
+      <c r="A401" s="1">
+        <v>112608</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C401" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B401" s="1" t="s">
+      <c r="D401" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B402" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C401" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="D401" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A402" s="1" t="s">
+      <c r="C402" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B402" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>732</v>
-      </c>
       <c r="D402" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>342</v>
       </c>
       <c r="C403" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="D403" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A404" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="D403" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A404" s="1" t="s">
+      <c r="B404" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C404" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B404" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C404" s="1" t="s">
+      <c r="D404" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A405" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="D404" s="3">
+      <c r="B405" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D405" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A405" s="1">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A406" s="1">
         <v>4003007</v>
       </c>
-      <c r="B405" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="C405" s="1" t="s">
+      <c r="B406" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="D405" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A406" s="1" t="s">
+      <c r="C406" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="B406" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="C406" s="1" t="s">
-        <v>741</v>
-      </c>
       <c r="D406" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C407" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B407" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>744</v>
-      </c>
       <c r="D407" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C408" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B408" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>746</v>
-      </c>
       <c r="D408" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C409" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B409" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="C409" s="1" t="s">
+      <c r="D409" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A410" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="D409" s="3">
+      <c r="B410" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D410" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A410" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="C410" s="1" t="s">
+    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A411" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="D410" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A411" s="1" t="s">
+      <c r="B411" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C411" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="B411" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="C411" s="1" t="s">
+      <c r="D411" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A412" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="D411" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A412" s="1">
-        <v>21030014</v>
-      </c>
       <c r="B412" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>753</v>
       </c>
       <c r="D412" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
+        <v>21030014</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D413" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
         <v>61241</v>
       </c>
-      <c r="B413" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="C413" s="1" t="s">
+      <c r="B414" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="D413" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="1" t="s">
+      <c r="C414" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B414" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="C414" s="1" t="s">
+      <c r="D414" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="D414" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A415" s="1" t="s">
+      <c r="B415" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C415" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B415" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="C415" s="1" t="s">
-        <v>759</v>
-      </c>
       <c r="D415" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C416" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B416" s="1" t="s">
+      <c r="D416" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A417" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B417" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="D416" s="3">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A417" s="1">
-        <v>61255</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>754</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>762</v>
       </c>
       <c r="D417" s="3">
-        <v>5</v>
+        <v>198</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
-        <v>3209510</v>
+        <v>61255</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>362</v>
+        <v>755</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>763</v>
       </c>
       <c r="D418" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="1">
+        <v>3209510</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D419" s="3">
         <v>30</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A419" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="C419" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="D419" s="3">
-        <v>5</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C420" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C420" s="1" t="s">
-        <v>767</v>
       </c>
       <c r="D420" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A421" s="1">
-        <v>502340</v>
+      <c r="A421" s="1" t="s">
+        <v>767</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>754</v>
+        <v>421</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>768</v>
       </c>
       <c r="D421" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
-        <v>2438631</v>
+        <v>502340</v>
       </c>
       <c r="B422" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C422" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="C422" s="1" t="s">
-        <v>770</v>
-      </c>
       <c r="D422" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
-        <v>2438616</v>
+        <v>2438631</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>771</v>
       </c>
       <c r="D423" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
-        <v>2487916</v>
+        <v>2438616</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>772</v>
@@ -11319,69 +11328,69 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
-        <v>2556702</v>
+        <v>2487916</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>773</v>
       </c>
       <c r="D425" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
-        <v>2556708</v>
+        <v>2556702</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>774</v>
       </c>
       <c r="D426" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
-        <v>2556705</v>
+        <v>2556708</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>775</v>
       </c>
       <c r="D427" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="1">
+        <v>2556705</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="D428" s="3">
         <v>9</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A428" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="C428" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="D428" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C429" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="C429" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="D429" s="3">
         <v>1</v>
@@ -11389,55 +11398,55 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C430" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B430" s="1" t="s">
+      <c r="D430" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="C430" s="1" t="s">
+      <c r="B431" s="1" t="s">
         <v>782</v>
-      </c>
-      <c r="D430" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A431" s="1">
-        <v>5101</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>783</v>
       </c>
       <c r="D431" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="1">
+        <v>5101</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D432" s="3">
         <v>3</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A432" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="C432" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="D432" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C433" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="C433" s="1" t="s">
-        <v>787</v>
       </c>
       <c r="D433" s="3">
         <v>1</v>
@@ -11445,486 +11454,486 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C434" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B434" s="1" t="s">
+      <c r="D434" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A435" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B435" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="C434" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="D434" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A435" s="1">
-        <v>5102</v>
-      </c>
-      <c r="B435" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>790</v>
       </c>
       <c r="D435" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A436" s="1" t="s">
+      <c r="A436" s="1">
+        <v>5102</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C436" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="B436" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="C436" s="1" t="s">
+      <c r="D436" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A437" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="D436" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A437" s="1">
-        <v>2470001</v>
-      </c>
       <c r="B437" s="1" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>793</v>
       </c>
       <c r="D437" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
-        <v>461201</v>
+        <v>2470001</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>794</v>
       </c>
       <c r="D438" s="3">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
-        <v>8124981</v>
+        <v>461201</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>795</v>
       </c>
       <c r="D439" s="3">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
-        <v>46070</v>
+        <v>8124981</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>127</v>
+        <v>755</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>796</v>
       </c>
       <c r="D440" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A441" s="1">
+        <v>46070</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D441" s="3">
         <v>3</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A441" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D441" s="3">
-        <v>7</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C442" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="B442" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="C442" s="1" t="s">
+      <c r="D442" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A443" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="D442" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A443" s="1">
-        <v>461200</v>
-      </c>
       <c r="B443" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>801</v>
       </c>
       <c r="D443" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A444" s="1">
+        <v>461200</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D444" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A444" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="C444" s="1" t="s">
+    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="D444" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A445" s="1" t="s">
+      <c r="B445" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C445" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="B445" s="1" t="s">
+      <c r="D445" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A446" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B446" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C445" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="D445" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A446" s="1">
-        <v>61408</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>754</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>806</v>
       </c>
       <c r="D446" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A447" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="1">
+        <v>61408</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C447" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="B447" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C447" s="1" t="s">
-        <v>808</v>
-      </c>
       <c r="D447" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C448" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="B448" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>811</v>
-      </c>
       <c r="D448" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C449" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="B449" s="1" t="s">
+      <c r="D449" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="C449" s="1" t="s">
+      <c r="B450" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="D449" s="3">
+      <c r="C450" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D450" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="B450" s="1" t="s">
+    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B451" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="D450" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A451" s="1">
-        <v>743218</v>
-      </c>
-      <c r="B451" s="1" t="s">
-        <v>754</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>817</v>
       </c>
       <c r="D451" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A452" s="1" t="s">
+      <c r="A452" s="1">
+        <v>743218</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C452" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B452" s="1" t="s">
+      <c r="D452" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B453" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="D452" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A453" s="1">
-        <v>705028</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>820</v>
       </c>
       <c r="D453" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A454" s="1" t="s">
-        <v>821</v>
+      <c r="A454" s="1">
+        <v>705028</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D454" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D455" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C456" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D456" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="1" t="s">
         <v>826</v>
-      </c>
-      <c r="D456" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A457" s="1" t="s">
-        <v>827</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D457" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C458" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="B458" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="C458" s="1" t="s">
-        <v>830</v>
-      </c>
       <c r="D458" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C459" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="B459" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="C459" s="1" t="s">
-        <v>832</v>
-      </c>
       <c r="D459" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C460" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="B460" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="C460" s="1" t="s">
-        <v>835</v>
-      </c>
       <c r="D460" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C461" s="1" t="s">
         <v>836</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="C461" s="1" t="s">
-        <v>837</v>
       </c>
       <c r="D461" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C462" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="B462" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="C462" s="1" t="s">
+      <c r="D462" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="D462" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A463" s="1" t="s">
+      <c r="B463" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C463" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="B463" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C463" s="1" t="s">
-        <v>841</v>
-      </c>
       <c r="D463" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D464" s="3">
-        <v>550</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C465" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D465" s="3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A466" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="D465" s="3">
+      <c r="B466" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D466" s="3">
         <v>1450</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="B466" s="1" t="s">
+    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="C466" s="1" t="s">
+      <c r="B467" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="D466" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A467" s="1" t="s">
+      <c r="C467" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="B467" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="C467" s="1" t="s">
+      <c r="D467" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A468" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="D467" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A468" s="1">
-        <v>3240200</v>
-      </c>
       <c r="B468" s="1" t="s">
-        <v>285</v>
+        <v>755</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>851</v>
@@ -11935,7 +11944,7 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
-        <v>3241100</v>
+        <v>3240200</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>285</v>
@@ -11949,7 +11958,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
-        <v>4568000</v>
+        <v>3241100</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>285</v>
@@ -11963,7 +11972,7 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
-        <v>8006000</v>
+        <v>4568000</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>285</v>
@@ -11977,7 +11986,7 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
-        <v>8106245</v>
+        <v>8006000</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>285</v>
@@ -11991,7 +12000,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
-        <v>8640033</v>
+        <v>8106245</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>285</v>
@@ -12003,124 +12012,124 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="1" t="s">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A474" s="1">
+        <v>8640033</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C474" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="B474" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="C474" s="1" t="s">
-        <v>858</v>
-      </c>
       <c r="D474" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C475" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="B475" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="C475" s="1" t="s">
+      <c r="D475" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="D475" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A476" s="1" t="s">
+      <c r="B476" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C476" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="B476" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C476" s="1" t="s">
+      <c r="D476" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A477" s="1" t="s">
         <v>862</v>
-      </c>
-      <c r="D476" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A477" s="1" t="s">
-        <v>863</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C477" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D477" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="1" t="s">
         <v>864</v>
-      </c>
-      <c r="D477" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A478" s="1" t="s">
-        <v>865</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C478" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D478" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A479" s="1" t="s">
         <v>866</v>
-      </c>
-      <c r="D478" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A479" s="1" t="s">
-        <v>867</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C479" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D479" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A480" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="D479" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A480" s="1" t="s">
+      <c r="B480" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C480" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="B480" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="C480" s="1" t="s">
+      <c r="D480" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="D480" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A481" s="1">
-        <v>8124999</v>
-      </c>
       <c r="B481" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>871</v>
       </c>
       <c r="D481" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
-        <v>8125046</v>
+        <v>8124999</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>872</v>
@@ -12131,10 +12140,10 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
-        <v>189003</v>
+        <v>8125046</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>873</v>
@@ -12145,10 +12154,10 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
-        <v>8640005</v>
+        <v>189003</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>4</v>
+        <v>755</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>874</v>
@@ -12157,23 +12166,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
-        <v>1013600</v>
+        <v>8640005</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>285</v>
+        <v>4</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>875</v>
       </c>
       <c r="D485" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
-        <v>1007000</v>
+        <v>1013600</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>285</v>
@@ -12187,7 +12196,7 @@
     </row>
     <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
-        <v>1013000</v>
+        <v>1007000</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>285</v>
@@ -12199,9 +12208,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
-        <v>2433010</v>
+        <v>1013000</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>285</v>
@@ -12210,12 +12219,12 @@
         <v>878</v>
       </c>
       <c r="D488" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
-        <v>3105360</v>
+        <v>2433010</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>285</v>
@@ -12227,9 +12236,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
-        <v>8660005</v>
+        <v>3105360</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>285</v>
@@ -12238,12 +12247,12 @@
         <v>880</v>
       </c>
       <c r="D490" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
-        <v>8660033</v>
+        <v>8660005</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>285</v>
@@ -12255,26 +12264,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A492" s="1" t="s">
+    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
+        <v>8660033</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C492" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="B492" s="1" t="s">
+      <c r="D492" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="C492" s="1" t="s">
+      <c r="B493" s="1" t="s">
         <v>884</v>
-      </c>
-      <c r="D492" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A493" s="1">
-        <v>2513000</v>
-      </c>
-      <c r="B493" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>885</v>
@@ -12283,9 +12292,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
-        <v>3241710</v>
+        <v>2513000</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>285</v>
@@ -12294,18 +12303,18 @@
         <v>886</v>
       </c>
       <c r="D494" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="1" t="s">
+      <c r="A495" s="1">
+        <v>3241710</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C495" s="1" t="s">
         <v>887</v>
-      </c>
-      <c r="B495" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="C495" s="1" t="s">
-        <v>888</v>
       </c>
       <c r="D495" s="3">
         <v>0</v>
@@ -12313,13 +12322,13 @@
     </row>
     <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C496" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="B496" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="C496" s="1" t="s">
-        <v>890</v>
       </c>
       <c r="D496" s="3">
         <v>0</v>
@@ -12327,24 +12336,24 @@
     </row>
     <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C497" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="B497" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="C497" s="1" t="s">
+      <c r="D497" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A498" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="D497" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A498" s="1">
-        <v>3240300</v>
-      </c>
       <c r="B498" s="1" t="s">
-        <v>285</v>
+        <v>884</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>893</v>
@@ -12355,7 +12364,7 @@
     </row>
     <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
-        <v>3241700</v>
+        <v>3240300</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>285</v>
@@ -12369,7 +12378,7 @@
     </row>
     <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
-        <v>5302106</v>
+        <v>3241700</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>285</v>
@@ -12383,7 +12392,7 @@
     </row>
     <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
-        <v>5302167</v>
+        <v>5302106</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>285</v>
@@ -12397,7 +12406,7 @@
     </row>
     <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
-        <v>5302169</v>
+        <v>5302167</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>285</v>
@@ -12411,7 +12420,7 @@
     </row>
     <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
-        <v>8108245</v>
+        <v>5302169</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>285</v>
@@ -12425,7 +12434,7 @@
     </row>
     <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
-        <v>8660034</v>
+        <v>8108245</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>285</v>
@@ -12439,7 +12448,7 @@
     </row>
     <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
-        <v>8808000</v>
+        <v>8660034</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>285</v>
@@ -12453,7 +12462,7 @@
     </row>
     <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
-        <v>8660003</v>
+        <v>8808000</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>285</v>
@@ -12465,68 +12474,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
-        <v>401182</v>
+        <v>8660003</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>754</v>
+        <v>285</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>902</v>
       </c>
       <c r="D507" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
-        <v>461180</v>
+        <v>401182</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>903</v>
       </c>
       <c r="D508" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
-        <v>461206</v>
+        <v>461180</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>904</v>
       </c>
       <c r="D509" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
-        <v>461120</v>
+        <v>461206</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D510" s="3">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
-        <v>461160</v>
+        <v>461120</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>906</v>
@@ -12537,69 +12546,69 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
-        <v>461185</v>
+        <v>461160</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>907</v>
       </c>
       <c r="D512" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <v>461185</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D513" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A513" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="B513" s="1" t="s">
+    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A514" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="C513" s="1" t="s">
+      <c r="B514" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="D513" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A514" s="1" t="s">
+      <c r="C514" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="B514" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="C514" s="1" t="s">
+      <c r="D514" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="D514" s="3">
+      <c r="B515" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="D515" s="3">
         <v>200</v>
-      </c>
-    </row>
-    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A515" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="B515" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="C515" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="D515" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C516" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="B516" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="C516" s="1" t="s">
-        <v>916</v>
       </c>
       <c r="D516" s="3">
         <v>0</v>
@@ -12607,69 +12616,69 @@
     </row>
     <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C517" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="B517" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="C517" s="1" t="s">
+      <c r="D517" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A518" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="D517" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A518" s="1" t="s">
+      <c r="B518" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C518" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="B518" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="C518" s="1" t="s">
+      <c r="D518" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="D518" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A519" s="1">
-        <v>712140</v>
-      </c>
       <c r="B519" s="1" t="s">
-        <v>754</v>
+        <v>910</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>921</v>
       </c>
       <c r="D519" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="1">
+        <v>712140</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="D520" s="3">
         <v>16</v>
-      </c>
-    </row>
-    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A520" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="B520" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C520" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="D520" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D521" s="3">
         <v>0</v>
@@ -12677,69 +12686,69 @@
     </row>
     <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C522" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="D522" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A523" s="1" t="s">
         <v>927</v>
-      </c>
-      <c r="D522" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A523" s="1" t="s">
-        <v>928</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D523" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C524" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="D524" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="1" t="s">
         <v>931</v>
-      </c>
-      <c r="D524" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="1" t="s">
-        <v>932</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D525" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D526" s="3">
         <v>0</v>
@@ -12747,13 +12756,13 @@
     </row>
     <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D527" s="3">
         <v>0</v>
@@ -12761,13 +12770,13 @@
     </row>
     <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D528" s="3">
         <v>0</v>
@@ -12775,13 +12784,13 @@
     </row>
     <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D529" s="3">
         <v>0</v>
@@ -12789,13 +12798,13 @@
     </row>
     <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D530" s="3">
         <v>0</v>
@@ -12803,158 +12812,158 @@
     </row>
     <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C531" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="D531" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A532" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="D531" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A532" s="5" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="533" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A533" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B533" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C533" s="6" t="s">
+      <c r="B532" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="D532" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A533" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A534" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B534" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C534" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D533" s="14" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A534" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="B534" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C534" s="1" t="s">
+      <c r="D534" s="14" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A535" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="D534" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A535" s="1" t="s">
+      <c r="B535" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="D535" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A536" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B535" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C535" s="1" t="s">
+      <c r="B536" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C536" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D535" s="3">
+      <c r="D536" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A536" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="B536" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C536" s="1" t="s">
+    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A537" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="D536" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A537" s="1" t="s">
+      <c r="B537" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C537" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="B537" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C537" s="1" t="s">
+      <c r="D537" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A538" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="D537" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A538" s="1" t="s">
+      <c r="B538" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C538" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="B538" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C538" s="1" t="s">
+      <c r="D538" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A539" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="D538" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A539" s="1" t="s">
+      <c r="B539" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C539" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="B539" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C539" s="1" t="s">
-        <v>955</v>
-      </c>
       <c r="D539" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C540" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="B540" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C540" s="1" t="s">
+      <c r="D540" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A541" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="D540" s="3">
+      <c r="B541" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="D541" s="3">
         <v>10</v>
-      </c>
-    </row>
-    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A541" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="B541" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C541" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="D541" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C542" s="1" t="s">
         <v>960</v>
-      </c>
-      <c r="B542" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C542" s="1" t="s">
-        <v>961</v>
       </c>
       <c r="D542" s="3">
         <v>0</v>
@@ -12962,13 +12971,13 @@
     </row>
     <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
-        <v>16</v>
+        <v>961</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>17</v>
+        <v>962</v>
       </c>
       <c r="D543" s="3">
         <v>0</v>
@@ -12976,35 +12985,35 @@
     </row>
     <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D544" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A545" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B544" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C544" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D544" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A545" s="1" t="s">
+      <c r="B545" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C545" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="B545" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C545" s="1" t="s">
-        <v>964</v>
-      </c>
       <c r="D545" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
-        <v>366</v>
+        <v>964</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>4</v>
@@ -13013,46 +13022,46 @@
         <v>965</v>
       </c>
       <c r="D546" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C547" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="B547" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C547" s="1" t="s">
+      <c r="D547" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A548" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="D547" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A548" s="1" t="s">
+      <c r="B548" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C548" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="B548" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C548" s="1" t="s">
-        <v>969</v>
-      </c>
       <c r="D548" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C549" s="1" t="s">
         <v>970</v>
-      </c>
-      <c r="B549" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C549" s="1" t="s">
-        <v>971</v>
       </c>
       <c r="D549" s="3">
         <v>0</v>
@@ -13060,13 +13069,13 @@
     </row>
     <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C550" s="1" t="s">
         <v>972</v>
-      </c>
-      <c r="B550" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C550" s="1" t="s">
-        <v>973</v>
       </c>
       <c r="D550" s="3">
         <v>0</v>
@@ -13074,265 +13083,265 @@
     </row>
     <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="D551" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A552" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B551" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C551" s="1" t="s">
+      <c r="B552" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C552" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D551" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A552" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="B552" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C552" s="1" t="s">
-        <v>975</v>
-      </c>
       <c r="D552" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C553" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B553" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C553" s="1" t="s">
-        <v>977</v>
-      </c>
       <c r="D553" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C554" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B554" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C554" s="1" t="s">
-        <v>979</v>
-      </c>
       <c r="D554" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C555" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="B555" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C555" s="1" t="s">
+      <c r="D555" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A556" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="D555" s="3">
+      <c r="B556" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D556" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="B556" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C556" s="1" t="s">
+    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A557" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="D556" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A557" s="1" t="s">
+      <c r="B557" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C557" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="B557" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C557" s="1" t="s">
+      <c r="D557" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A558" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="D557" s="3">
+      <c r="B558" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="D558" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A558" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="B558" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C558" s="1" t="s">
+    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A559" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="D558" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A559" s="1" t="s">
+      <c r="B559" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C559" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="B559" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C559" s="1" t="s">
-        <v>989</v>
-      </c>
       <c r="D559" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C560" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="B560" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C560" s="1" t="s">
+      <c r="D560" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A561" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="D560" s="3">
+      <c r="B561" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="D561" s="3">
         <v>8</v>
-      </c>
-    </row>
-    <row r="561" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="B561" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C561" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="D561" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C562" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="B562" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C562" s="1" t="s">
+      <c r="D562" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A563" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="D562" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A563" s="1" t="s">
+      <c r="B563" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C563" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="B563" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C563" s="1" t="s">
-        <v>997</v>
-      </c>
       <c r="D563" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C564" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="B564" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C564" s="1" t="s">
+      <c r="D564" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A565" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="D564" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A565" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="B565" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="D565" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C566" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D566" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A567" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="D566" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A567" s="1" t="s">
+      <c r="B567" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C567" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="B567" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C567" s="1" t="s">
+      <c r="D567" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A568" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="D567" s="3">
+      <c r="B568" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D568" s="3">
         <v>104</v>
-      </c>
-    </row>
-    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A568" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B568" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C568" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="D568" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B569" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D569" s="3">
         <v>0</v>
@@ -13340,13 +13349,13 @@
     </row>
     <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
-        <v>1004</v>
+        <v>570</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1005</v>
+        <v>571</v>
       </c>
       <c r="D570" s="3">
         <v>0</v>
@@ -13354,13 +13363,13 @@
     </row>
     <row r="571" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C571" s="1" t="s">
         <v>1006</v>
-      </c>
-      <c r="B571" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C571" s="1" t="s">
-        <v>1007</v>
       </c>
       <c r="D571" s="3">
         <v>0</v>
@@ -13368,77 +13377,77 @@
     </row>
     <row r="572" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C572" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="B572" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C572" s="1" t="s">
+      <c r="D572" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A573" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="D572" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A573" s="1" t="s">
+      <c r="B573" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C573" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="B573" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C573" s="1" t="s">
+      <c r="D573" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A574" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="D573" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="574" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A574" s="1" t="s">
+      <c r="B574" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D574" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A575" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B574" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C574" s="1" t="s">
+      <c r="B575" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C575" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D574" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A575" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B575" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C575" s="1" t="s">
+      <c r="D575" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A576" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="D575" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A576" s="1" t="s">
+      <c r="B576" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C576" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="B576" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C576" s="1" t="s">
-        <v>1015</v>
-      </c>
       <c r="D576" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
-        <v>24</v>
+        <v>1015</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>4</v>
@@ -13450,85 +13459,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C578" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B578" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C578" s="1" t="s">
+      <c r="D578" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A579" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="D578" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A579" s="1" t="s">
+      <c r="B579" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C579" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B579" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C579" s="1" t="s">
-        <v>1020</v>
-      </c>
       <c r="D579" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C580" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B580" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C580" s="1" t="s">
+      <c r="D580" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A581" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="D580" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A581" s="1" t="s">
+      <c r="B581" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C581" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="B581" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C581" s="1" t="s">
-        <v>1024</v>
-      </c>
       <c r="D581" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C582" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B582" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C582" s="1" t="s">
-        <v>1026</v>
-      </c>
       <c r="D582" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C583" s="1" t="s">
         <v>1027</v>
-      </c>
-      <c r="B583" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C583" s="1" t="s">
-        <v>1028</v>
       </c>
       <c r="D583" s="3">
         <v>1</v>
@@ -13536,167 +13545,167 @@
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C584" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B584" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C584" s="1" t="s">
+      <c r="D584" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A585" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="D584" s="3">
+      <c r="B585" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D585" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A585" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B585" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C585" s="1" t="s">
+    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A586" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="D585" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A586" s="1" t="s">
+      <c r="B586" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C586" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="B586" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C586" s="1" t="s">
-        <v>1034</v>
-      </c>
       <c r="D586" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C587" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="B587" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C587" s="1" t="s">
+      <c r="D587" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A588" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="D587" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="1" t="s">
+      <c r="B588" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C588" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="B588" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C588" s="1" t="s">
-        <v>1038</v>
-      </c>
       <c r="D588" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C589" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B589" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C589" s="1" t="s">
+      <c r="D589" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A590" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="D589" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A590" s="1" t="s">
+      <c r="B590" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C590" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="B590" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C590" s="1" t="s">
+      <c r="D590" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A591" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="D590" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A591" s="1" t="s">
+      <c r="B591" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C591" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B591" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C591" s="1" t="s">
+      <c r="D591" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A592" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="D591" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A592" s="1" t="s">
+      <c r="B592" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C592" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B592" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C592" s="1" t="s">
-        <v>1046</v>
-      </c>
       <c r="D592" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C593" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="B593" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C593" s="1" t="s">
+      <c r="D593" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A594" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="D593" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A594" s="1" t="s">
+      <c r="B594" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C594" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B594" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C594" s="1" t="s">
-        <v>1050</v>
-      </c>
       <c r="D594" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C595" s="1" t="s">
         <v>1051</v>
-      </c>
-      <c r="B595" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C595" s="1" t="s">
-        <v>1052</v>
       </c>
       <c r="D595" s="3">
         <v>0</v>
@@ -13704,13 +13713,13 @@
     </row>
     <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C596" s="1" t="s">
         <v>1053</v>
-      </c>
-      <c r="B596" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C596" s="1" t="s">
-        <v>1054</v>
       </c>
       <c r="D596" s="3">
         <v>0</v>
@@ -13718,69 +13727,69 @@
     </row>
     <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C597" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="B597" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C597" s="1" t="s">
+      <c r="D597" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A598" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="D597" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A598" s="1" t="s">
+      <c r="B598" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C598" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="B598" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C598" s="1" t="s">
-        <v>1058</v>
-      </c>
       <c r="D598" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C599" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="B599" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C599" s="1" t="s">
+      <c r="D599" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A600" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="D599" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A600" s="1" t="s">
+      <c r="B600" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C600" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="B600" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C600" s="1" t="s">
-        <v>1062</v>
-      </c>
       <c r="D600" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C601" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="B601" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C601" s="1" t="s">
-        <v>1064</v>
       </c>
       <c r="D601" s="3">
         <v>0</v>
@@ -13788,13 +13797,13 @@
     </row>
     <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C602" s="1" t="s">
         <v>1065</v>
-      </c>
-      <c r="B602" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C602" s="1" t="s">
-        <v>1066</v>
       </c>
       <c r="D602" s="3">
         <v>0</v>
@@ -13802,13 +13811,13 @@
     </row>
     <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C603" s="1" t="s">
         <v>1067</v>
-      </c>
-      <c r="B603" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C603" s="1" t="s">
-        <v>1068</v>
       </c>
       <c r="D603" s="3">
         <v>0</v>
@@ -13816,13 +13825,13 @@
     </row>
     <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C604" s="1" t="s">
         <v>1069</v>
-      </c>
-      <c r="B604" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C604" s="1" t="s">
-        <v>1070</v>
       </c>
       <c r="D604" s="3">
         <v>0</v>
@@ -13830,55 +13839,55 @@
     </row>
     <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C605" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="B605" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C605" s="1" t="s">
+      <c r="D605" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A606" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="D605" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A606" s="1" t="s">
+      <c r="B606" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D606" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A607" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B606" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C606" s="1" t="s">
+      <c r="B607" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C607" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D606" s="3">
+      <c r="D607" s="3">
         <v>2</v>
-      </c>
-    </row>
-    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A607" s="1" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B607" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C607" s="1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D607" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C608" s="1" t="s">
         <v>1075</v>
-      </c>
-      <c r="B608" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C608" s="1" t="s">
-        <v>1076</v>
       </c>
       <c r="D608" s="3">
         <v>0</v>
@@ -13886,13 +13895,13 @@
     </row>
     <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C609" s="1" t="s">
         <v>1077</v>
-      </c>
-      <c r="B609" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C609" s="1" t="s">
-        <v>1078</v>
       </c>
       <c r="D609" s="3">
         <v>0</v>
@@ -13900,7 +13909,7 @@
     </row>
     <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
-        <v>30</v>
+        <v>1078</v>
       </c>
       <c r="B610" s="1" t="s">
         <v>4</v>
@@ -13914,13 +13923,13 @@
     </row>
     <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C611" s="1" t="s">
         <v>1080</v>
-      </c>
-      <c r="B611" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C611" s="1" t="s">
-        <v>1081</v>
       </c>
       <c r="D611" s="3">
         <v>0</v>
@@ -13928,55 +13937,55 @@
     </row>
     <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C612" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="B612" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C612" s="1" t="s">
+      <c r="D612" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A613" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D612" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A613" s="1" t="s">
+      <c r="B613" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C613" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="B613" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C613" s="1" t="s">
+      <c r="D613" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A614" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="D613" s="3">
+      <c r="B614" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D614" s="3">
         <v>2</v>
-      </c>
-    </row>
-    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B614" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C614" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D614" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C615" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="B615" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C615" s="1" t="s">
-        <v>1089</v>
       </c>
       <c r="D615" s="3">
         <v>0</v>
@@ -13984,13 +13993,13 @@
     </row>
     <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C616" s="1" t="s">
         <v>1090</v>
-      </c>
-      <c r="B616" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C616" s="1" t="s">
-        <v>1091</v>
       </c>
       <c r="D616" s="3">
         <v>0</v>
@@ -13998,13 +14007,13 @@
     </row>
     <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C617" s="1" t="s">
         <v>1092</v>
-      </c>
-      <c r="B617" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C617" s="1" t="s">
-        <v>1093</v>
       </c>
       <c r="D617" s="3">
         <v>0</v>
@@ -14012,13 +14021,13 @@
     </row>
     <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C618" s="1" t="s">
         <v>1094</v>
-      </c>
-      <c r="B618" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C618" s="1" t="s">
-        <v>1095</v>
       </c>
       <c r="D618" s="3">
         <v>0</v>
@@ -14026,83 +14035,83 @@
     </row>
     <row r="619" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C619" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="B619" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C619" s="1" t="s">
+      <c r="D619" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A620" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="D619" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A620" s="1" t="s">
+      <c r="B620" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C620" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="B620" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C620" s="1" t="s">
+      <c r="D620" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A621" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="D620" s="3">
+      <c r="B621" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D621" s="3">
         <v>2</v>
-      </c>
-    </row>
-    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A621" s="1" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B621" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C621" s="1" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D621" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C622" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="B622" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C622" s="1" t="s">
+      <c r="D622" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A623" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="D622" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A623" s="1" t="s">
+      <c r="B623" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C623" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="B623" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C623" s="1" t="s">
-        <v>1105</v>
-      </c>
       <c r="D623" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C624" s="1" t="s">
         <v>1106</v>
-      </c>
-      <c r="B624" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C624" s="1" t="s">
-        <v>1107</v>
       </c>
       <c r="D624" s="3">
         <v>2</v>
@@ -14110,49 +14119,49 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C625" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="B625" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C625" s="1" t="s">
-        <v>1109</v>
-      </c>
       <c r="D625" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C626" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="B626" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C626" s="1" t="s">
+      <c r="D626" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A627" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="D626" s="3">
+      <c r="B627" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D627" s="3">
         <v>8</v>
-      </c>
-    </row>
-    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A627" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B627" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C627" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D627" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
-        <v>456</v>
+        <v>1113</v>
       </c>
       <c r="B628" s="1" t="s">
         <v>4</v>
@@ -14166,111 +14175,111 @@
     </row>
     <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C629" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="B629" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C629" s="1" t="s">
+      <c r="D629" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A630" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="D629" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A630" s="1" t="s">
+      <c r="B630" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C630" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="B630" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C630" s="1" t="s">
+      <c r="D630" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A631" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="D630" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A631" s="1" t="s">
+      <c r="B631" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C631" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="B631" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C631" s="1" t="s">
+      <c r="D631" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A632" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="D631" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A632" s="1" t="s">
+      <c r="B632" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C632" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="B632" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C632" s="1" t="s">
-        <v>1122</v>
-      </c>
       <c r="D632" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C633" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="B633" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C633" s="1" t="s">
-        <v>1124</v>
-      </c>
       <c r="D633" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C634" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="B634" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C634" s="1" t="s">
+      <c r="D634" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A635" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="D634" s="3">
+      <c r="B635" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D635" s="3">
         <v>167</v>
-      </c>
-    </row>
-    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A635" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B635" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C635" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D635" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C636" s="1" t="s">
         <v>1129</v>
-      </c>
-      <c r="B636" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C636" s="1" t="s">
-        <v>1130</v>
       </c>
       <c r="D636" s="3">
         <v>0</v>
@@ -14278,13 +14287,13 @@
     </row>
     <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
-        <v>550</v>
+        <v>1130</v>
       </c>
       <c r="B637" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>551</v>
+        <v>1131</v>
       </c>
       <c r="D637" s="3">
         <v>0</v>
@@ -14292,13 +14301,13 @@
     </row>
     <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B638" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D638" s="3">
         <v>0</v>
@@ -14306,125 +14315,125 @@
     </row>
     <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D639" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A640" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B639" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C639" s="1" t="s">
+      <c r="B640" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C640" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="D639" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A640" s="1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B640" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C640" s="1" t="s">
-        <v>1132</v>
-      </c>
       <c r="D640" s="3">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C641" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="B641" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C641" s="1" t="s">
-        <v>1134</v>
-      </c>
       <c r="D641" s="3">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C642" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="B642" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C642" s="1" t="s">
-        <v>1136</v>
-      </c>
       <c r="D642" s="3">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D643" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A644" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B643" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C643" s="1" t="s">
+      <c r="B644" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C644" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="D643" s="3">
+      <c r="D644" s="3">
         <v>66</v>
-      </c>
-    </row>
-    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A644" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B644" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C644" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D644" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C645" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="B645" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C645" s="1" t="s">
+      <c r="D645" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A646" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="D645" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A646" s="1" t="s">
+      <c r="B646" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C646" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="B646" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C646" s="1" t="s">
-        <v>1142</v>
-      </c>
       <c r="D646" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C647" s="1" t="s">
         <v>1143</v>
-      </c>
-      <c r="B647" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C647" s="1" t="s">
-        <v>1144</v>
       </c>
       <c r="D647" s="3">
         <v>3</v>
@@ -14432,13 +14441,13 @@
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C648" s="1" t="s">
         <v>1145</v>
-      </c>
-      <c r="B648" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C648" s="1" t="s">
-        <v>1146</v>
       </c>
       <c r="D648" s="3">
         <v>3</v>
@@ -14446,147 +14455,147 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C649" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="B649" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C649" s="1" t="s">
-        <v>1148</v>
-      </c>
       <c r="D649" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C650" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="B650" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C650" s="1" t="s">
+      <c r="D650" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A651" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="D650" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="651" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A651" s="1" t="s">
+      <c r="B651" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C651" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="B651" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C651" s="1" t="s">
+      <c r="D651" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A652" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="D651" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A652" s="1" t="s">
+      <c r="B652" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C652" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="B652" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C652" s="1" t="s">
-        <v>1154</v>
-      </c>
       <c r="D652" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C653" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="B653" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C653" s="1" t="s">
-        <v>1156</v>
-      </c>
       <c r="D653" s="3">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D654" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A655" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B654" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C654" s="1" t="s">
+      <c r="B655" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C655" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D654" s="3">
+      <c r="D655" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="655" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A655" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B655" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C655" s="1" t="s">
+    <row r="656" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A656" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="D655" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A656" s="1" t="s">
+      <c r="B656" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C656" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="B656" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C656" s="1" t="s">
-        <v>1160</v>
-      </c>
       <c r="D656" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C657" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="B657" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C657" s="1" t="s">
-        <v>1162</v>
-      </c>
       <c r="D657" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C658" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="B658" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C658" s="1" t="s">
-        <v>1164</v>
-      </c>
       <c r="D658" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
-        <v>64</v>
+        <v>1164</v>
       </c>
       <c r="B659" s="1" t="s">
         <v>4</v>
@@ -14595,270 +14604,270 @@
         <v>1165</v>
       </c>
       <c r="D659" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C660" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="B660" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C660" s="1" t="s">
+      <c r="D660" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A661" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="D660" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="661" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A661" s="1" t="s">
+      <c r="B661" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C661" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="B661" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C661" s="1" t="s">
+      <c r="D661" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A662" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="D661" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A662" s="1" t="s">
+      <c r="B662" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C662" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="B662" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C662" s="1" t="s">
-        <v>1171</v>
-      </c>
       <c r="D662" s="3">
-        <v>930</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C663" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="B663" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C663" s="1" t="s">
+      <c r="D663" s="3">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A664" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="D663" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="664" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A664" s="1" t="s">
-        <v>574</v>
-      </c>
       <c r="B664" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C664" s="1" t="s">
-        <v>575</v>
+        <v>1174</v>
       </c>
       <c r="D664" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" s="1" t="s">
-        <v>1174</v>
+        <v>574</v>
       </c>
       <c r="B665" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C665" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D665" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A666" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="D665" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A666" s="1" t="s">
+      <c r="B666" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D666" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A667" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B666" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C666" s="1" t="s">
+      <c r="B667" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C667" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D666" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="667" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A667" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B667" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C667" s="1" t="s">
+      <c r="D667" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A668" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="D667" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A668" s="1" t="s">
-        <v>517</v>
-      </c>
       <c r="B668" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>518</v>
+        <v>1178</v>
       </c>
       <c r="D668" s="3">
-        <v>647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A669" s="1" t="s">
-        <v>1178</v>
+        <v>517</v>
       </c>
       <c r="B669" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>1179</v>
+        <v>518</v>
       </c>
       <c r="D669" s="3">
-        <v>1</v>
+        <v>647</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C670" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="B670" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C670" s="1" t="s">
-        <v>1181</v>
-      </c>
       <c r="D670" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C671" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="B671" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C671" s="1" t="s">
-        <v>1183</v>
-      </c>
       <c r="D671" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C672" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="B672" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C672" s="1" t="s">
-        <v>1185</v>
-      </c>
       <c r="D672" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C673" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="B673" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C673" s="1" t="s">
-        <v>1187</v>
-      </c>
       <c r="D673" s="3">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A674" s="1" t="s">
-        <v>410</v>
+        <v>1187</v>
       </c>
       <c r="B674" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>411</v>
+        <v>1188</v>
       </c>
       <c r="D674" s="3">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A675" s="1" t="s">
-        <v>1188</v>
+        <v>410</v>
       </c>
       <c r="B675" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>1189</v>
+        <v>411</v>
       </c>
       <c r="D675" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A676" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C676" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="B676" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C676" s="1" t="s">
+      <c r="D676" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A677" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="D676" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="677" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A677" s="1" t="s">
+      <c r="B677" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C677" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="B677" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C677" s="1" t="s">
-        <v>1193</v>
-      </c>
       <c r="D677" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C678" s="1" t="s">
         <v>1194</v>
-      </c>
-      <c r="B678" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C678" s="1" t="s">
-        <v>1195</v>
       </c>
       <c r="D678" s="3">
         <v>0</v>
@@ -14866,307 +14875,307 @@
     </row>
     <row r="679" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C679" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B679" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C679" s="1" t="s">
+      <c r="D679" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A680" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="D679" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A680" s="1" t="s">
+      <c r="B680" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C680" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="B680" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C680" s="1" t="s">
-        <v>1199</v>
-      </c>
       <c r="D680" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A681" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C681" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="B681" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C681" s="1" t="s">
-        <v>1201</v>
-      </c>
       <c r="D681" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A682" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C682" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="B682" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C682" s="1" t="s">
+      <c r="D682" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A683" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="D682" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="683" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A683" s="1" t="s">
+      <c r="B683" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C683" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="B683" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C683" s="1" t="s">
-        <v>1205</v>
-      </c>
       <c r="D683" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C684" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="B684" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C684" s="1" t="s">
+      <c r="D684" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A685" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="D684" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A685" s="1" t="s">
+      <c r="B685" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C685" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="B685" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C685" s="1" t="s">
-        <v>1209</v>
-      </c>
       <c r="D685" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A686" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C686" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="B686" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C686" s="1" t="s">
-        <v>1211</v>
-      </c>
       <c r="D686" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A687" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C687" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="B687" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C687" s="1" t="s">
-        <v>1213</v>
-      </c>
       <c r="D687" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A688" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C688" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="B688" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C688" s="1" t="s">
-        <v>1215</v>
-      </c>
       <c r="D688" s="3">
-        <v>89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A689" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C689" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="B689" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C689" s="1" t="s">
-        <v>1217</v>
-      </c>
       <c r="D689" s="3">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A690" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C690" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="B690" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C690" s="1" t="s">
+      <c r="D690" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A691" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="D690" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="691" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A691" s="1" t="s">
+      <c r="B691" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C691" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="B691" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C691" s="1" t="s">
+      <c r="D691" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A692" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="D691" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A692" s="1" t="s">
+      <c r="B692" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C692" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="B692" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C692" s="1" t="s">
+      <c r="D692" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A693" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="D692" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="693" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A693" s="1" t="s">
+      <c r="B693" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C693" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="B693" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C693" s="1" t="s">
+      <c r="D693" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A694" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="D693" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A694" s="1" t="s">
+      <c r="B694" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C694" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="B694" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C694" s="1" t="s">
-        <v>1227</v>
-      </c>
       <c r="D694" s="3">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A695" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C695" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="B695" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C695" s="1" t="s">
+      <c r="D695" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A696" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="D695" s="3">
+      <c r="B696" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C696" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D696" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="696" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A696" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B696" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C696" s="1" t="s">
+    <row r="697" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A697" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="D696" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A697" s="1" t="s">
+      <c r="B697" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C697" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="B697" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C697" s="1" t="s">
+      <c r="D697" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A698" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="D697" s="3">
+      <c r="B698" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D698" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="698" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A698" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B698" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C698" s="1" t="s">
+    <row r="699" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A699" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="D698" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A699" s="1" t="s">
+      <c r="B699" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C699" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="B699" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C699" s="1" t="s">
-        <v>1237</v>
-      </c>
       <c r="D699" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A700" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C700" s="1" t="s">
         <v>1238</v>
-      </c>
-      <c r="B700" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C700" s="1" t="s">
-        <v>1239</v>
       </c>
       <c r="D700" s="3">
         <v>1</v>
@@ -15174,41 +15183,41 @@
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A701" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C701" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="B701" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C701" s="1" t="s">
-        <v>1241</v>
-      </c>
       <c r="D701" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A702" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C702" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="B702" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C702" s="1" t="s">
-        <v>1243</v>
-      </c>
       <c r="D702" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A703" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C703" s="1" t="s">
         <v>1244</v>
-      </c>
-      <c r="B703" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C703" s="1" t="s">
-        <v>1245</v>
       </c>
       <c r="D703" s="3">
         <v>1</v>
@@ -15216,83 +15225,83 @@
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A704" s="1" t="s">
-        <v>434</v>
+        <v>1245</v>
       </c>
       <c r="B704" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C704" s="1" t="s">
-        <v>435</v>
+        <v>1246</v>
       </c>
       <c r="D704" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A705" s="1" t="s">
-        <v>1246</v>
+        <v>434</v>
       </c>
       <c r="B705" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C705" s="1" t="s">
-        <v>1247</v>
+        <v>435</v>
       </c>
       <c r="D705" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A706" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C706" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="B706" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C706" s="1" t="s">
-        <v>1249</v>
-      </c>
       <c r="D706" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A707" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C707" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="B707" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C707" s="1" t="s">
+      <c r="D707" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A708" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="D707" s="3">
+      <c r="B708" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C708" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D708" s="3">
         <v>6</v>
-      </c>
-    </row>
-    <row r="708" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A708" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B708" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C708" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D708" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C709" s="1" t="s">
         <v>1254</v>
-      </c>
-      <c r="B709" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C709" s="1" t="s">
-        <v>1255</v>
       </c>
       <c r="D709" s="3">
         <v>0</v>
@@ -15300,13 +15309,13 @@
     </row>
     <row r="710" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C710" s="1" t="s">
         <v>1256</v>
-      </c>
-      <c r="B710" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C710" s="1" t="s">
-        <v>1257</v>
       </c>
       <c r="D710" s="3">
         <v>0</v>
@@ -15314,13 +15323,13 @@
     </row>
     <row r="711" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C711" s="1" t="s">
         <v>1258</v>
-      </c>
-      <c r="B711" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C711" s="1" t="s">
-        <v>1259</v>
       </c>
       <c r="D711" s="3">
         <v>0</v>
@@ -15328,41 +15337,41 @@
     </row>
     <row r="712" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C712" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="B712" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C712" s="1" t="s">
+      <c r="D712" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A713" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="D712" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A713" s="1" t="s">
+      <c r="B713" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C713" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="B713" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C713" s="1" t="s">
-        <v>1263</v>
-      </c>
       <c r="D713" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A714" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C714" s="1" t="s">
         <v>1264</v>
-      </c>
-      <c r="B714" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C714" s="1" t="s">
-        <v>1265</v>
       </c>
       <c r="D714" s="3">
         <v>1</v>
@@ -15370,13 +15379,13 @@
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A715" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C715" s="1" t="s">
         <v>1266</v>
-      </c>
-      <c r="B715" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C715" s="1" t="s">
-        <v>1267</v>
       </c>
       <c r="D715" s="3">
         <v>1</v>
@@ -15384,209 +15393,209 @@
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C716" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="B716" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C716" s="1" t="s">
+      <c r="D716" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A717" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="D716" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="717" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A717" s="1" t="s">
+      <c r="B717" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C717" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="B717" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C717" s="1" t="s">
+      <c r="D717" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A718" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="D717" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A718" s="1" t="s">
+      <c r="B718" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C718" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="B718" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C718" s="1" t="s">
+      <c r="D718" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A719" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="D718" s="3">
+      <c r="B719" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C719" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D719" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="719" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A719" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B719" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C719" s="1" t="s">
+    <row r="720" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A720" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="D719" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A720" s="1" t="s">
+      <c r="B720" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C720" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="B720" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C720" s="1" t="s">
-        <v>1277</v>
-      </c>
       <c r="D720" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A721" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C721" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B721" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C721" s="1" t="s">
-        <v>1279</v>
-      </c>
       <c r="D721" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A722" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C722" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="B722" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C722" s="1" t="s">
-        <v>1281</v>
-      </c>
       <c r="D722" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A723" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C723" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="B723" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C723" s="1" t="s">
-        <v>1283</v>
-      </c>
       <c r="D723" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A724" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C724" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="B724" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C724" s="1" t="s">
-        <v>1285</v>
-      </c>
       <c r="D724" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A725" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C725" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="B725" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C725" s="1" t="s">
-        <v>1287</v>
-      </c>
       <c r="D725" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A726" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C726" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="B726" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C726" s="1" t="s">
+      <c r="D726" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A727" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="D726" s="3">
+      <c r="B727" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C727" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D727" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="727" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A727" s="1" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B727" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C727" s="1" t="s">
+    <row r="728" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A728" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="D727" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A728" s="1" t="s">
+      <c r="B728" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C728" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="B728" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C728" s="1" t="s">
+      <c r="D728" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A729" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="D728" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="729" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A729" s="1" t="s">
+      <c r="B729" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C729" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="B729" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C729" s="1" t="s">
-        <v>1295</v>
-      </c>
       <c r="D729" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C730" s="1" t="s">
         <v>1296</v>
-      </c>
-      <c r="B730" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C730" s="1" t="s">
-        <v>1297</v>
       </c>
       <c r="D730" s="3">
         <v>0</v>
@@ -15594,13 +15603,13 @@
     </row>
     <row r="731" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C731" s="1" t="s">
         <v>1298</v>
-      </c>
-      <c r="B731" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C731" s="1" t="s">
-        <v>1299</v>
       </c>
       <c r="D731" s="3">
         <v>0</v>
@@ -15608,237 +15617,237 @@
     </row>
     <row r="732" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C732" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="B732" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C732" s="1" t="s">
+      <c r="D732" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A733" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="D732" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A733" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="B733" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C733" s="1" t="s">
-        <v>463</v>
+        <v>1302</v>
       </c>
       <c r="D733" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B734" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C734" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D734" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A735" s="1" t="s">
-        <v>1304</v>
+        <v>462</v>
       </c>
       <c r="B735" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C735" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D735" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A736" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="D735" s="3">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="736" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A736" s="1" t="s">
+      <c r="B736" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C736" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="B736" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C736" s="1" t="s">
-        <v>1307</v>
-      </c>
       <c r="D736" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A737" s="1" t="s">
-        <v>554</v>
+        <v>1307</v>
       </c>
       <c r="B737" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C737" s="1" t="s">
-        <v>555</v>
+        <v>1308</v>
       </c>
       <c r="D737" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B738" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C738" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D738" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A739" s="1" t="s">
-        <v>1310</v>
+        <v>554</v>
       </c>
       <c r="B739" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C739" s="1" t="s">
-        <v>1311</v>
+        <v>555</v>
       </c>
       <c r="D739" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A740" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C740" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="B740" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C740" s="1" t="s">
-        <v>1313</v>
-      </c>
       <c r="D740" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A741" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C741" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="B741" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C741" s="1" t="s">
-        <v>1315</v>
-      </c>
       <c r="D741" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A742" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C742" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="B742" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C742" s="1" t="s">
-        <v>1317</v>
-      </c>
       <c r="D742" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A743" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C743" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="B743" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C743" s="1" t="s">
-        <v>1319</v>
-      </c>
       <c r="D743" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A744" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C744" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="B744" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C744" s="1" t="s">
+      <c r="D744" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A745" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="D744" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="745" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A745" s="1" t="s">
+      <c r="B745" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C745" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D745" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A746" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C746" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D746" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A747" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B745" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C745" s="1" t="s">
+      <c r="B747" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C747" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D745" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="746" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A746" s="1" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B746" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C746" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D746" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A747" s="1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B747" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C747" s="1" t="s">
-        <v>1325</v>
-      </c>
       <c r="D747" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C748" s="1" t="s">
         <v>1326</v>
-      </c>
-      <c r="B748" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C748" s="1" t="s">
-        <v>1327</v>
       </c>
       <c r="D748" s="3">
         <v>0</v>
@@ -15846,7 +15855,7 @@
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A749" s="1" t="s">
-        <v>438</v>
+        <v>1327</v>
       </c>
       <c r="B749" s="1" t="s">
         <v>4</v>
@@ -15855,10 +15864,10 @@
         <v>1328</v>
       </c>
       <c r="D749" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750" s="1" t="s">
         <v>1329</v>
       </c>
@@ -15869,46 +15878,46 @@
         <v>1330</v>
       </c>
       <c r="D750" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="751" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A751" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C751" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="B751" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C751" s="1" t="s">
+      <c r="D751" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A752" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="D751" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="752" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A752" s="1" t="s">
+      <c r="B752" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C752" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="B752" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C752" s="1" t="s">
-        <v>1334</v>
-      </c>
       <c r="D752" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C753" s="1" t="s">
         <v>1335</v>
-      </c>
-      <c r="B753" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C753" s="1" t="s">
-        <v>1336</v>
       </c>
       <c r="D753" s="3">
         <v>0</v>
@@ -15916,13 +15925,13 @@
     </row>
     <row r="754" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C754" s="1" t="s">
         <v>1337</v>
-      </c>
-      <c r="B754" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C754" s="1" t="s">
-        <v>1338</v>
       </c>
       <c r="D754" s="3">
         <v>0</v>
@@ -15930,13 +15939,13 @@
     </row>
     <row r="755" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C755" s="1" t="s">
         <v>1339</v>
-      </c>
-      <c r="B755" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C755" s="1" t="s">
-        <v>1340</v>
       </c>
       <c r="D755" s="3">
         <v>0</v>
@@ -15944,13 +15953,13 @@
     </row>
     <row r="756" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C756" s="1" t="s">
         <v>1341</v>
-      </c>
-      <c r="B756" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C756" s="1" t="s">
-        <v>1342</v>
       </c>
       <c r="D756" s="3">
         <v>0</v>
@@ -15958,13 +15967,13 @@
     </row>
     <row r="757" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C757" s="1" t="s">
         <v>1343</v>
-      </c>
-      <c r="B757" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C757" s="1" t="s">
-        <v>1344</v>
       </c>
       <c r="D757" s="3">
         <v>0</v>
@@ -15972,13 +15981,13 @@
     </row>
     <row r="758" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C758" s="1" t="s">
         <v>1345</v>
-      </c>
-      <c r="B758" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C758" s="1" t="s">
-        <v>1346</v>
       </c>
       <c r="D758" s="3">
         <v>0</v>
@@ -15986,13 +15995,13 @@
     </row>
     <row r="759" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C759" s="1" t="s">
         <v>1347</v>
-      </c>
-      <c r="B759" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C759" s="1" t="s">
-        <v>1348</v>
       </c>
       <c r="D759" s="3">
         <v>0</v>
@@ -16000,13 +16009,13 @@
     </row>
     <row r="760" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C760" s="1" t="s">
         <v>1349</v>
-      </c>
-      <c r="B760" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C760" s="1" t="s">
-        <v>1350</v>
       </c>
       <c r="D760" s="3">
         <v>0</v>
@@ -16014,13 +16023,13 @@
     </row>
     <row r="761" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C761" s="1" t="s">
         <v>1351</v>
-      </c>
-      <c r="B761" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C761" s="1" t="s">
-        <v>1352</v>
       </c>
       <c r="D761" s="3">
         <v>0</v>
@@ -16028,13 +16037,13 @@
     </row>
     <row r="762" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C762" s="1" t="s">
         <v>1353</v>
-      </c>
-      <c r="B762" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C762" s="1" t="s">
-        <v>1354</v>
       </c>
       <c r="D762" s="3">
         <v>0</v>
@@ -16042,13 +16051,13 @@
     </row>
     <row r="763" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C763" s="1" t="s">
         <v>1355</v>
-      </c>
-      <c r="B763" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C763" s="1" t="s">
-        <v>1356</v>
       </c>
       <c r="D763" s="3">
         <v>0</v>
@@ -16056,13 +16065,13 @@
     </row>
     <row r="764" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C764" s="1" t="s">
         <v>1357</v>
-      </c>
-      <c r="B764" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C764" s="1" t="s">
-        <v>1358</v>
       </c>
       <c r="D764" s="3">
         <v>0</v>
@@ -16070,13 +16079,13 @@
     </row>
     <row r="765" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C765" s="1" t="s">
         <v>1359</v>
-      </c>
-      <c r="B765" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C765" s="1" t="s">
-        <v>1360</v>
       </c>
       <c r="D765" s="3">
         <v>0</v>
@@ -16084,13 +16093,13 @@
     </row>
     <row r="766" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C766" s="1" t="s">
         <v>1361</v>
-      </c>
-      <c r="B766" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C766" s="1" t="s">
-        <v>1362</v>
       </c>
       <c r="D766" s="3">
         <v>0</v>
@@ -16098,312 +16107,312 @@
     </row>
     <row r="767" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C767" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="B767" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C767" s="1" t="s">
+      <c r="D767" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A768" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="D767" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A768" s="1" t="s">
+      <c r="B768" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C768" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="B768" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C768" s="1" t="s">
+      <c r="D768" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A769" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="D768" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A769" s="1" t="s">
+      <c r="B769" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C769" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="B769" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C769" s="1" t="s">
-        <v>1368</v>
-      </c>
       <c r="D769" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A770" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C770" s="1" t="s">
         <v>1369</v>
-      </c>
-      <c r="B770" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C770" s="1" t="s">
-        <v>1370</v>
       </c>
       <c r="D770" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="771" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A771" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C771" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="B771" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C771" s="1" t="s">
+      <c r="D771" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A772" s="1" t="s">
         <v>1372</v>
       </c>
-      <c r="D771" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A772" s="5" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="773" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A773" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B773" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C773" s="6" t="s">
+      <c r="B772" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C772" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D772" s="3">
         <v>2</v>
       </c>
-      <c r="D773" s="14" t="s">
-        <v>1496</v>
+    </row>
+    <row r="773" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A773" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C773" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D773" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A774" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="B774" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C774" s="1" t="s">
+      <c r="A774" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A775" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B775" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C775" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D775" s="14" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A776" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="D774" s="3">
+      <c r="B776" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C776" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="D776" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A775" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B775" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C775" s="1" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D775" s="3">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A777" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C777" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D777" s="3">
         <v>3</v>
-      </c>
-    </row>
-    <row r="776" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A776" s="1" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B776" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C776" s="1" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D776" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="777" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A777" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B777" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C777" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D777" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778" s="1" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B778" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C778" s="1" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="D778" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779" s="1" t="s">
-        <v>1379</v>
+        <v>1024</v>
       </c>
       <c r="B779" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C779" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D779" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A780" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="D779" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A780" s="1" t="s">
+      <c r="B780" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C780" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="B780" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C780" s="1" t="s">
+      <c r="D780" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A781" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="D780" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="781" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A781" s="1" t="s">
-        <v>1014</v>
-      </c>
       <c r="B781" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C781" s="1" t="s">
-        <v>1015</v>
+        <v>1383</v>
       </c>
       <c r="D781" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="782" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A782" s="1" t="s">
-        <v>14</v>
+        <v>1384</v>
       </c>
       <c r="B782" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C782" s="1" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="D782" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C783" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D783" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A784" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C784" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D784" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A785" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B783" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C783" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D783" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A784" s="1" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B784" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C784" s="1" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D784" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A785" s="1" t="s">
-        <v>1386</v>
-      </c>
       <c r="B785" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C785" s="1" t="s">
-        <v>1387</v>
+        <v>963</v>
       </c>
       <c r="D785" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A786" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C786" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="B786" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C786" s="1" t="s">
+      <c r="D786" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A787" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="D786" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="787" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A787" s="1" t="s">
+      <c r="B787" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C787" s="1" t="s">
         <v>1390</v>
       </c>
-      <c r="B787" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C787" s="1" t="s">
+      <c r="D787" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A788" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="D787" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="788" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A788" s="1" t="s">
-        <v>984</v>
-      </c>
       <c r="B788" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C788" s="1" t="s">
-        <v>985</v>
+        <v>1392</v>
       </c>
       <c r="D788" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789" s="1" t="s">
-        <v>980</v>
+        <v>1393</v>
       </c>
       <c r="B789" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C789" s="1" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="D789" s="3">
         <v>0</v>
@@ -16411,41 +16420,41 @@
     </row>
     <row r="790" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790" s="1" t="s">
-        <v>1393</v>
+        <v>985</v>
       </c>
       <c r="B790" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C790" s="1" t="s">
-        <v>1394</v>
+        <v>986</v>
       </c>
       <c r="D790" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791" s="1" t="s">
-        <v>950</v>
+        <v>981</v>
       </c>
       <c r="B791" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C791" s="1" t="s">
-        <v>951</v>
+        <v>1395</v>
       </c>
       <c r="D791" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792" s="1" t="s">
-        <v>1010</v>
+        <v>1396</v>
       </c>
       <c r="B792" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C792" s="1" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="D792" s="3">
         <v>0</v>
@@ -16453,27 +16462,27 @@
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A793" s="1" t="s">
-        <v>1045</v>
+        <v>951</v>
       </c>
       <c r="B793" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C793" s="1" t="s">
-        <v>1046</v>
+        <v>952</v>
       </c>
       <c r="D793" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="794" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794" s="1" t="s">
-        <v>948</v>
+        <v>1011</v>
       </c>
       <c r="B794" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C794" s="1" t="s">
-        <v>949</v>
+        <v>1398</v>
       </c>
       <c r="D794" s="3">
         <v>0</v>
@@ -16481,125 +16490,125 @@
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A795" s="1" t="s">
-        <v>1396</v>
+        <v>1046</v>
       </c>
       <c r="B795" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C795" s="1" t="s">
-        <v>1397</v>
+        <v>1047</v>
       </c>
       <c r="D795" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796" s="1" t="s">
-        <v>1398</v>
+        <v>949</v>
       </c>
       <c r="B796" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C796" s="1" t="s">
-        <v>1399</v>
+        <v>950</v>
       </c>
       <c r="D796" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A797" s="1" t="s">
-        <v>956</v>
+        <v>1399</v>
       </c>
       <c r="B797" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C797" s="1" t="s">
-        <v>957</v>
+        <v>1400</v>
       </c>
       <c r="D797" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A798" s="1" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B798" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C798" s="1" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D798" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A799" s="1" t="s">
-        <v>1402</v>
+        <v>957</v>
       </c>
       <c r="B799" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C799" s="1" t="s">
-        <v>1403</v>
+        <v>958</v>
       </c>
       <c r="D799" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A800" s="1" t="s">
-        <v>1057</v>
+        <v>1403</v>
       </c>
       <c r="B800" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C800" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D800" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A801" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C801" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D801" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A802" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="D800" s="3">
+      <c r="B802" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C802" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D802" s="3">
         <v>2</v>
-      </c>
-    </row>
-    <row r="801" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A801" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B801" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C801" s="1" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D801" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="802" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A802" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B802" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C802" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D802" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803" s="1" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B803" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C803" s="1" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D803" s="3">
         <v>0</v>
@@ -16607,83 +16616,83 @@
     </row>
     <row r="804" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804" s="1" t="s">
-        <v>1408</v>
+        <v>1022</v>
       </c>
       <c r="B804" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C804" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D804" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A805" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="D804" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A805" s="1" t="s">
+      <c r="B805" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C805" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="B805" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C805" s="1" t="s">
+      <c r="D805" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A806" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="D805" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A806" s="1" t="s">
+      <c r="B806" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C806" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="B806" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C806" s="1" t="s">
-        <v>1413</v>
-      </c>
       <c r="D806" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A807" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B807" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C807" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="B807" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C807" s="1" t="s">
-        <v>1415</v>
-      </c>
       <c r="D807" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A808" s="1" t="s">
-        <v>1063</v>
+        <v>1415</v>
       </c>
       <c r="B808" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>1064</v>
+        <v>1416</v>
       </c>
       <c r="D808" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A809" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B809" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D809" s="3">
         <v>1</v>
@@ -16691,16 +16700,16 @@
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A810" s="1" t="s">
-        <v>1266</v>
+        <v>1064</v>
       </c>
       <c r="B810" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>1418</v>
+        <v>1065</v>
       </c>
       <c r="D810" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.2">
@@ -16714,18 +16723,18 @@
         <v>1420</v>
       </c>
       <c r="D811" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A812" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C812" s="1" t="s">
         <v>1421</v>
-      </c>
-      <c r="B812" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C812" s="1" t="s">
-        <v>1422</v>
       </c>
       <c r="D812" s="3">
         <v>4</v>
@@ -16733,41 +16742,41 @@
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A813" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C813" s="1" t="s">
         <v>1423</v>
       </c>
-      <c r="B813" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C813" s="1" t="s">
-        <v>1424</v>
-      </c>
       <c r="D813" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A814" s="1" t="s">
-        <v>988</v>
+        <v>1424</v>
       </c>
       <c r="B814" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>989</v>
+        <v>1425</v>
       </c>
       <c r="D814" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A815" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B815" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="D815" s="3">
         <v>1</v>
@@ -16775,55 +16784,55 @@
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A816" s="1" t="s">
-        <v>1427</v>
+        <v>989</v>
       </c>
       <c r="B816" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C816" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="D816" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A817" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="D816" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="817" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A817" s="1" t="s">
+      <c r="B817" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C817" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="B817" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C817" s="1" t="s">
-        <v>1430</v>
-      </c>
       <c r="D817" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A818" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C818" s="1" t="s">
         <v>1431</v>
       </c>
-      <c r="B818" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C818" s="1" t="s">
-        <v>1432</v>
-      </c>
       <c r="D818" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C819" s="1" t="s">
         <v>1433</v>
-      </c>
-      <c r="B819" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C819" s="1" t="s">
-        <v>1434</v>
       </c>
       <c r="D819" s="3">
         <v>0</v>
@@ -16831,55 +16840,55 @@
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A820" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C820" s="1" t="s">
         <v>1435</v>
       </c>
-      <c r="B820" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C820" s="1" t="s">
+      <c r="D820" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A821" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="D820" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A821" s="1" t="s">
+      <c r="B821" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C821" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="B821" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C821" s="1" t="s">
-        <v>1438</v>
-      </c>
       <c r="D821" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A822" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B822" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C822" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="B822" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C822" s="1" t="s">
-        <v>1440</v>
-      </c>
       <c r="D822" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A823" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B823" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C823" s="1" t="s">
         <v>1441</v>
-      </c>
-      <c r="B823" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C823" s="1" t="s">
-        <v>1442</v>
       </c>
       <c r="D823" s="3">
         <v>5</v>
@@ -16887,69 +16896,69 @@
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A824" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B824" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C824" s="1" t="s">
         <v>1443</v>
       </c>
-      <c r="B824" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C824" s="1" t="s">
-        <v>1444</v>
-      </c>
       <c r="D824" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A825" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B825" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C825" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="B825" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C825" s="1" t="s">
+      <c r="D825" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A826" s="1" t="s">
         <v>1446</v>
       </c>
-      <c r="D825" s="3">
+      <c r="B826" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C826" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D826" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A827" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B827" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C827" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D827" s="3">
         <v>3</v>
-      </c>
-    </row>
-    <row r="826" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A826" s="1" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B826" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C826" s="1" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D826" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="827" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A827" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B827" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C827" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="D827" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828" s="1" t="s">
-        <v>550</v>
+        <v>1450</v>
       </c>
       <c r="B828" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C828" s="1" t="s">
-        <v>551</v>
+        <v>1451</v>
       </c>
       <c r="D828" s="3">
         <v>0</v>
@@ -16957,133 +16966,133 @@
     </row>
     <row r="829" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829" s="1" t="s">
-        <v>1129</v>
+        <v>552</v>
       </c>
       <c r="B829" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C829" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D829" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A830" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B830" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C830" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D830" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A831" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="D829" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A830" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B830" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C830" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D830" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A831" s="1" t="s">
-        <v>1449</v>
-      </c>
       <c r="B831" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>1450</v>
+        <v>1131</v>
       </c>
       <c r="D831" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A832" s="1" t="s">
-        <v>1451</v>
+        <v>1128</v>
       </c>
       <c r="B832" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>1452</v>
+        <v>1129</v>
       </c>
       <c r="D832" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A833" s="1" t="s">
-        <v>1080</v>
+        <v>1452</v>
       </c>
       <c r="B833" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C833" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D833" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A834" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C834" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D834" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A835" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="D833" s="3">
+      <c r="B835" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C835" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D835" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="834" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A834" s="1" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B834" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C834" s="1" t="s">
-        <v>1454</v>
-      </c>
-      <c r="D834" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="835" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A835" s="1" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B835" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C835" s="1" t="s">
+    <row r="836" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A836" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="D835" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A836" s="1" t="s">
+      <c r="B836" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C836" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="B836" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C836" s="1" t="s">
+      <c r="D836" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A837" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="D836" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A837" s="1" t="s">
+      <c r="B837" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C837" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="B837" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C837" s="1" t="s">
+      <c r="D837" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A838" s="1" t="s">
         <v>1460</v>
-      </c>
-      <c r="D837" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="838" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A838" s="1" t="s">
-        <v>1086</v>
       </c>
       <c r="B838" s="1" t="s">
         <v>4</v>
@@ -17092,7 +17101,7 @@
         <v>1461</v>
       </c>
       <c r="D838" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.2">
@@ -17106,124 +17115,124 @@
         <v>1463</v>
       </c>
       <c r="D839" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="840" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B840" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C840" s="1" t="s">
         <v>1464</v>
       </c>
-      <c r="B840" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C840" s="1" t="s">
-        <v>1465</v>
-      </c>
       <c r="D840" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A841" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B841" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C841" s="1" t="s">
         <v>1466</v>
       </c>
-      <c r="B841" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C841" s="1" t="s">
-        <v>1467</v>
-      </c>
       <c r="D841" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A842" s="1" t="s">
-        <v>42</v>
+        <v>1467</v>
       </c>
       <c r="B842" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C842" s="1" t="s">
-        <v>43</v>
+        <v>1468</v>
       </c>
       <c r="D842" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A843" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B843" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C843" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D843" s="3">
         <v>2</v>
-      </c>
-    </row>
-    <row r="843" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A843" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B843" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C843" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D843" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A844" s="1" t="s">
-        <v>1053</v>
+        <v>42</v>
       </c>
       <c r="B844" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C844" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D844" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A845" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B845" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C845" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D845" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A846" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="D844" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="845" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A845" s="1" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B845" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C845" s="1" t="s">
-        <v>1469</v>
-      </c>
-      <c r="D845" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="846" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A846" s="1" t="s">
-        <v>1470</v>
-      </c>
       <c r="B846" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C846" s="1" t="s">
-        <v>1471</v>
+        <v>1055</v>
       </c>
       <c r="D846" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A847" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B847" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C847" s="1" t="s">
         <v>1472</v>
       </c>
-      <c r="B847" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C847" s="1" t="s">
-        <v>1473</v>
-      </c>
       <c r="D847" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848" s="1" t="s">
-        <v>1047</v>
+        <v>1473</v>
       </c>
       <c r="B848" s="1" t="s">
         <v>4</v>
@@ -17249,43 +17258,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="850" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850" s="1" t="s">
-        <v>30</v>
+        <v>1048</v>
       </c>
       <c r="B850" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C850" s="1" t="s">
-        <v>1079</v>
+        <v>1477</v>
       </c>
       <c r="D850" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A851" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B851" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D851" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A852" s="1" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="B852" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>104</v>
+        <v>1080</v>
       </c>
       <c r="D852" s="3">
         <v>3</v>
@@ -17293,30 +17302,30 @@
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A853" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B853" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C853" s="1" t="s">
-        <v>37</v>
+        <v>1481</v>
       </c>
       <c r="D853" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A854" s="1" t="s">
-        <v>1480</v>
+        <v>103</v>
       </c>
       <c r="B854" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>1481</v>
+        <v>104</v>
       </c>
       <c r="D854" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.2">
@@ -17327,100 +17336,128 @@
         <v>4</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>1483</v>
+        <v>37</v>
       </c>
       <c r="D855" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A856" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B856" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C856" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="B856" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C856" s="1" t="s">
-        <v>1485</v>
-      </c>
       <c r="D856" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A857" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B857" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C857" s="1" t="s">
         <v>1486</v>
       </c>
-      <c r="B857" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C857" s="1" t="s">
-        <v>1487</v>
-      </c>
       <c r="D857" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A858" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B858" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C858" s="1" t="s">
         <v>1488</v>
       </c>
-      <c r="B858" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C858" s="1" t="s">
-        <v>1489</v>
-      </c>
       <c r="D858" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A859" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B859" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C859" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="B859" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C859" s="1" t="s">
+      <c r="D859" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A860" s="1" t="s">
         <v>1491</v>
       </c>
-      <c r="D859" s="3">
+      <c r="B860" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C860" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D860" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A861" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B861" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C861" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D861" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="860" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A860" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B860" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C860" s="1" t="s">
+    <row r="862" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A862" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="D860" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="861" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A861" s="1" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B861" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C861" s="1" t="s">
-        <v>1493</v>
-      </c>
-      <c r="D861" s="3">
+      <c r="B862" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C862" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D862" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A863" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B863" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C863" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D863" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="E4:H4"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup scale="38" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17433,22 +17470,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB6EFB4-D5EF-47A5-A3D8-ABCE44D5E9ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ADB34C-BEC1-4FF0-A221-41CB95B08F17}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="45.125" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="3" max="3" width="45.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -17465,7 +17502,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -17474,7 +17511,7 @@
       <c r="C3" s="16"/>
       <c r="D3" s="27"/>
     </row>
-    <row r="4" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>8</v>
       </c>
@@ -17499,7 +17536,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -17516,7 +17553,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -17525,12 +17562,12 @@
       <c r="C8" s="16"/>
       <c r="D8" s="27"/>
     </row>
-    <row r="9" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>114</v>
       </c>
       <c r="B9" s="20" t="str">
-        <f>VLOOKUP(A9,DATOS!A:I,2,FALSE)</f>
+        <f>VLOOKUP(A9,DATOS!A:D,2,FALSE)</f>
         <v>M&amp;C</v>
       </c>
       <c r="C9" s="34" t="str">
